--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MyAccount_Login.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/MyAccount_Login.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Case</t>
   </si>
@@ -69,13 +69,37 @@
     <t>When user id and password are valid Cheque_Book_Normal_other</t>
   </si>
   <si>
-    <t>NADEEM07</t>
-  </si>
-  <si>
-    <t>When user id and password are valid Cheque_Book_FCY_other</t>
-  </si>
-  <si>
-    <t>HEEE</t>
+    <t>When user id and password are valid Limit_PSD_Y_One</t>
+  </si>
+  <si>
+    <t>RAEESROOMI</t>
+  </si>
+  <si>
+    <t>When user id and password are valid Limit_PSD_N_One</t>
+  </si>
+  <si>
+    <t>E00347569</t>
+  </si>
+  <si>
+    <t>When user id and password are valid Limit_PSD_Y_Two</t>
+  </si>
+  <si>
+    <t>When user id and password are valid Limit_PSD_N_Two</t>
+  </si>
+  <si>
+    <t>ASHRAF199</t>
+  </si>
+  <si>
+    <t>HOTELMIKE4</t>
+  </si>
+  <si>
+    <t>RANAHASAN2270</t>
+  </si>
+  <si>
+    <t>RANA3050</t>
+  </si>
+  <si>
+    <t>GBPCHEQUEBOOK</t>
   </si>
 </sst>
 </file>
@@ -111,8 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +453,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -440,7 +467,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -451,10 +478,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -465,10 +492,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -479,10 +506,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -493,10 +520,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -507,10 +534,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -521,10 +548,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -535,10 +562,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -546,6 +573,51 @@
       <c r="D10">
         <v>12345678</v>
       </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
